--- a/KyoceraAVX_V2.0.xlsx
+++ b/KyoceraAVX_V2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDAE763-C331-4EA2-BED6-2F370439D192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F265D-6180-40E7-A267-74697B44C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Kyocera AVX RC-Car Teile</t>
   </si>
@@ -104,9 +104,6 @@
     <t>lindinger.at</t>
   </si>
   <si>
-    <t>Dämpfer</t>
-  </si>
-  <si>
     <t>Federn</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>Jetko Tomahawk Belted Reifen</t>
   </si>
   <si>
-    <t>Versand bei trashop.eu ab 150€ gratis</t>
+    <t>4s 6750mAh Lipo</t>
   </si>
 </sst>
 </file>
@@ -457,9 +454,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -469,7 +466,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542E0706-C279-070E-4E5B-07788FE094C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -512,9 +509,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -524,7 +521,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C269DAAF-02A6-DAF1-4738-FEA6B45815C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -567,9 +564,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>329308</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>191588</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -579,7 +576,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA239B68-D3A6-2B39-39A5-5EE88FF4BA97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -600,23 +597,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -637,7 +621,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -647,7 +631,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFEC71B-4773-6C6C-9B61-A44BEB4B7C8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -690,9 +674,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -702,7 +686,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFFE8F2-E825-6D6F-FEF7-B061335677B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -739,15 +723,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>905691</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>182879</xdr:rowOff>
+          <xdr:colOff>885825</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>10885</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>2191230</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>165462</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -757,7 +741,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D96C89A-C591-077C-C0C5-A02E0C243556}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -778,23 +762,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1104,25 +1075,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190216A1-E49D-4261-B9C5-C63CD3DB8C33}">
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1133,7 +1104,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -1141,12 +1112,12 @@
       <c r="D3" s="9"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
         <v>1</v>
@@ -1171,7 +1142,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="16" t="s">
         <v>10</v>
@@ -1195,7 +1166,7 @@
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="16" t="s">
         <v>8</v>
@@ -1217,34 +1188,32 @@
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>74.95</v>
+        <v>69.11</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8:H13" si="1">G8*F8</f>
-        <v>149.9</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>27</v>
-      </c>
+        <v>138.22</v>
+      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>17</v>
@@ -1263,10 +1232,10 @@
       <c r="I9" s="18"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
@@ -1285,10 +1254,10 @@
       <c r="I10" s="18"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>17</v>
@@ -1307,7 +1276,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1329,10 +1298,10 @@
       <c r="I12" s="18"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
@@ -1351,7 +1320,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
@@ -1373,7 +1342,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="16" t="s">
         <v>13</v>
@@ -1395,7 +1364,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="16" t="s">
         <v>14</v>
@@ -1417,7 +1386,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="19" t="s">
         <v>20</v>
@@ -1439,22 +1408,22 @@
       <c r="I17" s="29"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="G19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="24">
         <f>SUM(H6:H17)</f>
-        <v>984.34000000000015</v>
+        <v>972.6600000000002</v>
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -1465,8 +1434,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28"/>
     </row>
   </sheetData>
@@ -1474,15 +1443,15 @@
     <hyperlink ref="D6" r:id="rId1" xr:uid="{54B48541-A933-4B35-A06A-EA17B99A1248}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{FD01E456-A499-4C78-ADF0-AE1264D218AC}"/>
     <hyperlink ref="D14" r:id="rId3" xr:uid="{20FE926E-69B6-4810-9DF4-BB80C7931A2F}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{8F007C2C-DA5F-45E8-BE38-3C1AEE6D911D}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{3E35AA68-C32F-420A-9274-CB28AE75B056}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{7F034C59-977E-4071-984C-138F0A72CB0F}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{538EBD8B-8C65-403B-90E6-C5AE04E2ECFF}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{DFE8AC77-0FE9-4F90-9AEB-8B0C6B645B07}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{3F41B354-D3F1-479C-8C46-0B3C481C5556}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{4433EF25-7885-4907-9B4F-A1D00443F7F3}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{876A4811-D50B-47C8-96EA-886158FB70C2}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{0827C468-339B-4AA9-B714-5F1DB0EA05A5}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{7F034C59-977E-4071-984C-138F0A72CB0F}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{538EBD8B-8C65-403B-90E6-C5AE04E2ECFF}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{DFE8AC77-0FE9-4F90-9AEB-8B0C6B645B07}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{3F41B354-D3F1-479C-8C46-0B3C481C5556}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{4433EF25-7885-4907-9B4F-A1D00443F7F3}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{876A4811-D50B-47C8-96EA-886158FB70C2}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{0827C468-339B-4AA9-B714-5F1DB0EA05A5}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{1650E74B-60A4-4F39-BAAE-A116A1AF97FB}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{8F007C2C-DA5F-45E8-BE38-3C1AEE6D911D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
@@ -1502,9 +1471,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>350520</xdr:colOff>
+                <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1527,9 +1496,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1552,7 +1521,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>327660</xdr:colOff>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -1579,7 +1548,7 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1602,9 +1571,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1621,15 +1590,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>906780</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>2186940</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
